--- a/aiurt-module-system/src/main/resources/templates/sysUserError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sysUserError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14719\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0562F1C-D29B-4905-A0C8-31B4E9A47F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8C976-DDFA-4F54-93D2-567BC5B95CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="960" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户导入错误清单" sheetId="1" r:id="rId1"/>
@@ -209,12 +209,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -223,32 +238,32 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +548,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,83 +564,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/sysUserError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sysUserError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A46628F-DF12-4CB5-83E2-EF604D73F10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19514DB7-0BE9-4851-AE96-E4CF5E48B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
